--- a/Product-Quantity-Standard.xlsx
+++ b/Product-Quantity-Standard.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\clone\ExportTool\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="510" yWindow="540" windowWidth="14055" windowHeight="5580"/>
   </bookViews>
   <sheets>
     <sheet name="Bao cao SL ban ra hang ngay" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="88">
   <si>
     <t>BÁO CÁO SẢN PHẨM HÀNG NGÀY CÔNG TY ATZ</t>
   </si>
@@ -248,6 +253,36 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Home Appliance</t>
+  </si>
+  <si>
+    <t>Household</t>
+  </si>
+  <si>
+    <t>Home Textile</t>
+  </si>
+  <si>
+    <t>Sports</t>
+  </si>
+  <si>
+    <t>Beauty - Cosmetics</t>
+  </si>
+  <si>
+    <t>Kid</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -293,7 +328,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -324,6 +359,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
@@ -335,6 +373,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -418,7 +459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -630,7 +671,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,11 +688,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -710,8 +751,8 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>67</v>
+      <c r="F4" s="30" t="s">
+        <v>87</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>75</v>
@@ -738,8 +779,8 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="29" t="s">
-        <v>68</v>
+      <c r="F5" s="30" t="s">
+        <v>71</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>76</v>
@@ -770,8 +811,8 @@
       <c r="E6">
         <v>2</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>68</v>
+      <c r="F6" s="30" t="s">
+        <v>78</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>77</v>
@@ -802,8 +843,8 @@
       <c r="E7">
         <v>5</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>69</v>
+      <c r="F7" s="30" t="s">
+        <v>79</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>75</v>
@@ -834,8 +875,8 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="29" t="s">
-        <v>68</v>
+      <c r="F8" s="30" t="s">
+        <v>80</v>
       </c>
       <c r="G8" s="29" t="s">
         <v>77</v>
@@ -862,7 +903,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="30" t="s">
         <v>70</v>
       </c>
       <c r="H9" s="28">
@@ -891,8 +932,8 @@
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="29" t="s">
-        <v>71</v>
+      <c r="F10" s="30" t="s">
+        <v>73</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>75</v>
@@ -923,8 +964,8 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>71</v>
+      <c r="F11" s="30" t="s">
+        <v>81</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>76</v>
@@ -951,8 +992,8 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="29" t="s">
-        <v>72</v>
+      <c r="F12" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>76</v>
@@ -983,8 +1024,8 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="29" t="s">
-        <v>73</v>
+      <c r="F13" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="H13" s="28">
         <v>990000</v>
@@ -1008,8 +1049,8 @@
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>68</v>
+      <c r="F14" s="30" t="s">
+        <v>82</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>75</v>
@@ -1040,8 +1081,8 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="29" t="s">
-        <v>73</v>
+      <c r="F15" s="30" t="s">
+        <v>69</v>
       </c>
       <c r="G15" s="29" t="s">
         <v>77</v>
@@ -1072,8 +1113,8 @@
       <c r="E16">
         <v>3</v>
       </c>
-      <c r="F16" s="29" t="s">
-        <v>67</v>
+      <c r="F16" s="30" t="s">
+        <v>72</v>
       </c>
       <c r="H16" s="28">
         <v>1190000</v>
@@ -1101,8 +1142,8 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" s="29" t="s">
-        <v>73</v>
+      <c r="F17" s="30" t="s">
+        <v>83</v>
       </c>
       <c r="H17" s="28">
         <v>690000</v>
@@ -1130,8 +1171,8 @@
       <c r="E18">
         <v>6</v>
       </c>
-      <c r="F18" s="29" t="s">
-        <v>73</v>
+      <c r="F18" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>75</v>
@@ -1162,8 +1203,8 @@
       <c r="E19">
         <v>4</v>
       </c>
-      <c r="F19" s="29" t="s">
-        <v>67</v>
+      <c r="F19" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="H19" s="28">
         <v>1290000</v>
@@ -1191,8 +1232,8 @@
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20" s="29" t="s">
-        <v>67</v>
+      <c r="F20" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="G20" s="29" t="s">
         <v>76</v>
@@ -1317,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H24" s="28">
         <v>1390000</v>
@@ -1439,7 +1480,7 @@
         <v>5</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G28" s="29" t="s">
         <v>77</v>
